--- a/data/pca/factorExposure/factorExposure_2013-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006226739205978288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001874596293397698</v>
+      </c>
+      <c r="C2">
+        <v>-0.03241575690844981</v>
+      </c>
+      <c r="D2">
+        <v>0.00686350365994086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001640998300278869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006154028340070641</v>
+      </c>
+      <c r="C4">
+        <v>-0.08428367167252976</v>
+      </c>
+      <c r="D4">
+        <v>0.07865188933835635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002945493770679758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01395981939674475</v>
+      </c>
+      <c r="C6">
+        <v>-0.1134970195013436</v>
+      </c>
+      <c r="D6">
+        <v>0.03070762813041636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00144930539374006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004944153226786487</v>
+      </c>
+      <c r="C7">
+        <v>-0.05744638560461868</v>
+      </c>
+      <c r="D7">
+        <v>0.0353000772610358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0003514975548951008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005701489730537856</v>
+      </c>
+      <c r="C8">
+        <v>-0.03819284678025455</v>
+      </c>
+      <c r="D8">
+        <v>0.04397343497568378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003743354643541421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004323556510343542</v>
+      </c>
+      <c r="C9">
+        <v>-0.07044485101215106</v>
+      </c>
+      <c r="D9">
+        <v>0.07110045902193396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00463667652475843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00543728662137083</v>
+      </c>
+      <c r="C10">
+        <v>-0.05789083315495221</v>
+      </c>
+      <c r="D10">
+        <v>-0.201503423959036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002634964879647872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005707061617768068</v>
+      </c>
+      <c r="C11">
+        <v>-0.08101342038433947</v>
+      </c>
+      <c r="D11">
+        <v>0.0604867035980348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000550340097538606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004113811754933728</v>
+      </c>
+      <c r="C12">
+        <v>-0.06459237723253276</v>
+      </c>
+      <c r="D12">
+        <v>0.04466313558541242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003331119893719735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008637382311462298</v>
+      </c>
+      <c r="C13">
+        <v>-0.06646328311398246</v>
+      </c>
+      <c r="D13">
+        <v>0.06349544341087535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001267557670568546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001545564943203701</v>
+      </c>
+      <c r="C14">
+        <v>-0.04657652316246017</v>
+      </c>
+      <c r="D14">
+        <v>0.006668280985427278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009300834039498856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005979773619285859</v>
+      </c>
+      <c r="C15">
+        <v>-0.04258995195227936</v>
+      </c>
+      <c r="D15">
+        <v>0.02744233161996091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001185120074504856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005079209902871407</v>
+      </c>
+      <c r="C16">
+        <v>-0.06619574558070219</v>
+      </c>
+      <c r="D16">
+        <v>0.04529064797265331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001744662314762654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008812417807002371</v>
+      </c>
+      <c r="C20">
+        <v>-0.06588010519332205</v>
+      </c>
+      <c r="D20">
+        <v>0.04407758805173337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005163657010788788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01006580283357033</v>
+      </c>
+      <c r="C21">
+        <v>-0.02259741332233113</v>
+      </c>
+      <c r="D21">
+        <v>0.03552812150895347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01719858589510793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006487446500891517</v>
+      </c>
+      <c r="C22">
+        <v>-0.09637510995432025</v>
+      </c>
+      <c r="D22">
+        <v>0.1002438277515492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01750916442860791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006306168705266912</v>
+      </c>
+      <c r="C23">
+        <v>-0.09718181584475336</v>
+      </c>
+      <c r="D23">
+        <v>0.100471750084357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001723557515444776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005308537064494084</v>
+      </c>
+      <c r="C24">
+        <v>-0.07611059210072606</v>
+      </c>
+      <c r="D24">
+        <v>0.05930180380357196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003771011562137514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002899557666479517</v>
+      </c>
+      <c r="C25">
+        <v>-0.07808727361628881</v>
+      </c>
+      <c r="D25">
+        <v>0.0643174770988497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005582112603837363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003565643317362836</v>
+      </c>
+      <c r="C26">
+        <v>-0.04124674288454301</v>
+      </c>
+      <c r="D26">
+        <v>0.02352004495735742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00405976309359479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009806823529981256</v>
+      </c>
+      <c r="C28">
+        <v>-0.1065316980161489</v>
+      </c>
+      <c r="D28">
+        <v>-0.3179770222542519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0011562761424267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003101561040498017</v>
+      </c>
+      <c r="C29">
+        <v>-0.04950320301904287</v>
+      </c>
+      <c r="D29">
+        <v>0.003714247176607941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002939865486490986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009333029938720361</v>
+      </c>
+      <c r="C30">
+        <v>-0.1432893773253379</v>
+      </c>
+      <c r="D30">
+        <v>0.1016785918086785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008265407302155793</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006175367401772427</v>
+      </c>
+      <c r="C31">
+        <v>-0.04541268646910394</v>
+      </c>
+      <c r="D31">
+        <v>0.03087029713438025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000501251977464754</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004072543033283754</v>
+      </c>
+      <c r="C32">
+        <v>-0.04157945689618089</v>
+      </c>
+      <c r="D32">
+        <v>0.01768647748849781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002564002041373492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008127393841512771</v>
+      </c>
+      <c r="C33">
+        <v>-0.08630132083182473</v>
+      </c>
+      <c r="D33">
+        <v>0.06656355334736089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004265183458437898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003948852885901274</v>
+      </c>
+      <c r="C34">
+        <v>-0.05773215593854658</v>
+      </c>
+      <c r="D34">
+        <v>0.05113619506009659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002400562468955754</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005091696055541531</v>
+      </c>
+      <c r="C35">
+        <v>-0.04026768779415544</v>
+      </c>
+      <c r="D35">
+        <v>0.01384470199424197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004055407672004296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001285702020287758</v>
+      </c>
+      <c r="C36">
+        <v>-0.02426727571115068</v>
+      </c>
+      <c r="D36">
+        <v>0.02207763220605175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00273197651645439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00951184151973527</v>
+      </c>
+      <c r="C38">
+        <v>-0.03510409299067178</v>
+      </c>
+      <c r="D38">
+        <v>0.01700604421820661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01183555742054264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000621204981505497</v>
+      </c>
+      <c r="C39">
+        <v>-0.1172746910493126</v>
+      </c>
+      <c r="D39">
+        <v>0.07149808449311434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008870789074343894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00234411048711225</v>
+      </c>
+      <c r="C40">
+        <v>-0.0885332487525913</v>
+      </c>
+      <c r="D40">
+        <v>0.0171905295433776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003657052825318455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007297731636267684</v>
+      </c>
+      <c r="C41">
+        <v>-0.03805931520225772</v>
+      </c>
+      <c r="D41">
+        <v>0.03498145638952986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003120536162309768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00381328540639731</v>
+      </c>
+      <c r="C43">
+        <v>-0.05256154684109172</v>
+      </c>
+      <c r="D43">
+        <v>0.02389029917260759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002543344262714259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003185790323322572</v>
+      </c>
+      <c r="C44">
+        <v>-0.1103153814760822</v>
+      </c>
+      <c r="D44">
+        <v>0.06957066340203272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0015639477942102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002300538457583345</v>
+      </c>
+      <c r="C46">
+        <v>-0.03353629345677679</v>
+      </c>
+      <c r="D46">
+        <v>0.03056942331393954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004439794656662093</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002666606669507705</v>
+      </c>
+      <c r="C47">
+        <v>-0.03725831011858579</v>
+      </c>
+      <c r="D47">
+        <v>0.02318183630456624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003796281310407732</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006451402354446841</v>
+      </c>
+      <c r="C48">
+        <v>-0.02948343883656897</v>
+      </c>
+      <c r="D48">
+        <v>0.0323305995239795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01274245969112069</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01517572686014099</v>
+      </c>
+      <c r="C49">
+        <v>-0.1829538089836851</v>
+      </c>
+      <c r="D49">
+        <v>0.0117146145013325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003727082674813111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003587336693059734</v>
+      </c>
+      <c r="C50">
+        <v>-0.04404413945004335</v>
+      </c>
+      <c r="D50">
+        <v>0.03456955957507322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008668529893258141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00442820880061405</v>
+      </c>
+      <c r="C51">
+        <v>-0.02667754587990168</v>
+      </c>
+      <c r="D51">
+        <v>0.01919338792490645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008870683836542724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02057430499866506</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690553302727491</v>
+      </c>
+      <c r="D53">
+        <v>0.03545342706094712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001453716761710222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008594188801284239</v>
+      </c>
+      <c r="C54">
+        <v>-0.05523903906165117</v>
+      </c>
+      <c r="D54">
+        <v>0.04197451546519024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003895086176160615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009402323953367705</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096926407206659</v>
+      </c>
+      <c r="D55">
+        <v>0.04390424914832149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003377518809148881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01985112533268749</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746881150294144</v>
+      </c>
+      <c r="D56">
+        <v>0.03443861635877325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006654720674769213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01979573163754519</v>
+      </c>
+      <c r="C58">
+        <v>-0.1121610472280997</v>
+      </c>
+      <c r="D58">
+        <v>0.04732521208001458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006277878073272806</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009471802251419205</v>
+      </c>
+      <c r="C59">
+        <v>-0.1612262395458951</v>
+      </c>
+      <c r="D59">
+        <v>-0.3088519734230476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00335266044892385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02351533866538011</v>
+      </c>
+      <c r="C60">
+        <v>-0.2213560411184392</v>
+      </c>
+      <c r="D60">
+        <v>0.03057115176556264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01388621962887938</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001789131744113598</v>
+      </c>
+      <c r="C61">
+        <v>-0.09573354135557693</v>
+      </c>
+      <c r="D61">
+        <v>0.05689472721961741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1678389442849118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444679367484818</v>
+      </c>
+      <c r="C62">
+        <v>-0.0907348712927205</v>
+      </c>
+      <c r="D62">
+        <v>0.05153704614081459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00111182502111236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006212367007992093</v>
+      </c>
+      <c r="C63">
+        <v>-0.05562204078019146</v>
+      </c>
+      <c r="D63">
+        <v>0.02318087315276795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001489503567216226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01521870232843056</v>
+      </c>
+      <c r="C64">
+        <v>-0.105108851360704</v>
+      </c>
+      <c r="D64">
+        <v>0.05959787881035373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002480471440224309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01768018706673513</v>
+      </c>
+      <c r="C65">
+        <v>-0.121449335665484</v>
+      </c>
+      <c r="D65">
+        <v>0.01799381753557578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007028799546572464</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01308940492733559</v>
+      </c>
+      <c r="C66">
+        <v>-0.1603352758716048</v>
+      </c>
+      <c r="D66">
+        <v>0.1145153026474186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004008648888852311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01565105196245877</v>
+      </c>
+      <c r="C67">
+        <v>-0.06608306113022094</v>
+      </c>
+      <c r="D67">
+        <v>0.02516298608454548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005969473298164701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005014936575076308</v>
+      </c>
+      <c r="C68">
+        <v>-0.08625327102102263</v>
+      </c>
+      <c r="D68">
+        <v>-0.2561467942504635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002366049672883718</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00606367839067561</v>
+      </c>
+      <c r="C69">
+        <v>-0.0501411590182559</v>
+      </c>
+      <c r="D69">
+        <v>0.03896607622756287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003279984695469083</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001873686821013486</v>
+      </c>
+      <c r="C70">
+        <v>-0.002734708888900923</v>
+      </c>
+      <c r="D70">
+        <v>0.001602357854822966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001255505884630449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005812495729176266</v>
+      </c>
+      <c r="C71">
+        <v>-0.09654855111186551</v>
+      </c>
+      <c r="D71">
+        <v>-0.3059980942308627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004326942845736585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0159289481802441</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530025183912342</v>
+      </c>
+      <c r="D72">
+        <v>0.02165852528579877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01164829636945488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02991021273139092</v>
+      </c>
+      <c r="C73">
+        <v>-0.275979146361841</v>
+      </c>
+      <c r="D73">
+        <v>0.04738749597858544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004299808043313107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001811699455157102</v>
+      </c>
+      <c r="C74">
+        <v>-0.1054851781211352</v>
+      </c>
+      <c r="D74">
+        <v>0.03697499365634024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0024127637943326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01092884114647407</v>
+      </c>
+      <c r="C75">
+        <v>-0.1281965760208132</v>
+      </c>
+      <c r="D75">
+        <v>0.02253507594002474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009694711318211679</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02163059688825249</v>
+      </c>
+      <c r="C76">
+        <v>-0.1500236738718364</v>
+      </c>
+      <c r="D76">
+        <v>0.06427748257743754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001063904653629501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02378693390671127</v>
+      </c>
+      <c r="C77">
+        <v>-0.1301507654934551</v>
+      </c>
+      <c r="D77">
+        <v>0.06638975832466978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001051846538368675</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01452615686861783</v>
+      </c>
+      <c r="C78">
+        <v>-0.09503827210929289</v>
+      </c>
+      <c r="D78">
+        <v>0.0687960803840514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02414040000671394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03747894283243709</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562328187316961</v>
+      </c>
+      <c r="D79">
+        <v>0.0363801943332849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00515580887347234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01052702161363234</v>
+      </c>
+      <c r="C80">
+        <v>-0.04296934052637559</v>
+      </c>
+      <c r="D80">
+        <v>0.02813478068852239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001296643537725635</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01515039667796491</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269326394633697</v>
+      </c>
+      <c r="D81">
+        <v>0.04118262559533618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00599845829234249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01976142901120722</v>
+      </c>
+      <c r="C82">
+        <v>-0.1423705101879326</v>
+      </c>
+      <c r="D82">
+        <v>0.0434741456424832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009349929218282338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01014872609122939</v>
+      </c>
+      <c r="C83">
+        <v>-0.05716748628130883</v>
+      </c>
+      <c r="D83">
+        <v>0.0548478949095522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01368517215984855</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01174927294123848</v>
+      </c>
+      <c r="C84">
+        <v>-0.03638983419376521</v>
+      </c>
+      <c r="D84">
+        <v>-0.00816299830162753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01460769695782571</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02803803260184327</v>
+      </c>
+      <c r="C85">
+        <v>-0.1263170945872688</v>
+      </c>
+      <c r="D85">
+        <v>0.04746253849180382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00061952882519955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005700100627072658</v>
+      </c>
+      <c r="C86">
+        <v>-0.04914265635143467</v>
+      </c>
+      <c r="D86">
+        <v>0.02368726067815877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003918955706762031</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01028347478762016</v>
+      </c>
+      <c r="C87">
+        <v>-0.1326142026622605</v>
+      </c>
+      <c r="D87">
+        <v>0.06707474558471226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01236859567014582</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002840161876418489</v>
+      </c>
+      <c r="C88">
+        <v>-0.06762695621703803</v>
+      </c>
+      <c r="D88">
+        <v>0.01286827309798825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01439090462655862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001530811349497704</v>
+      </c>
+      <c r="C89">
+        <v>-0.1455088333868596</v>
+      </c>
+      <c r="D89">
+        <v>-0.3413350513690361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002061170930019991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006713153031462782</v>
+      </c>
+      <c r="C90">
+        <v>-0.1207362877253858</v>
+      </c>
+      <c r="D90">
+        <v>-0.3278159262605301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001352321179846618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050276733780704</v>
+      </c>
+      <c r="C91">
+        <v>-0.1032268622977016</v>
+      </c>
+      <c r="D91">
+        <v>0.02294318534513313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007818609099244703</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006824026824546754</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360554652446122</v>
+      </c>
+      <c r="D92">
+        <v>-0.3320336155022182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001541430918235751</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004755581059976196</v>
+      </c>
+      <c r="C93">
+        <v>-0.104989147189634</v>
+      </c>
+      <c r="D93">
+        <v>-0.3089624198407315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004261143880864792</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02251141255720534</v>
+      </c>
+      <c r="C94">
+        <v>-0.1498881797064542</v>
+      </c>
+      <c r="D94">
+        <v>0.05034035943948005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004748368183927351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01620221161125769</v>
+      </c>
+      <c r="C95">
+        <v>-0.1263310303310635</v>
+      </c>
+      <c r="D95">
+        <v>0.05582027837287994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001394059481778002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03574226953651426</v>
+      </c>
+      <c r="C97">
+        <v>-0.2106931295690616</v>
+      </c>
+      <c r="D97">
+        <v>-0.008010733189567002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003507723117870444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03653417617534284</v>
+      </c>
+      <c r="C98">
+        <v>-0.2452440565241439</v>
+      </c>
+      <c r="D98">
+        <v>0.05022401859912125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9839966714720557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823690025980754</v>
+      </c>
+      <c r="C99">
+        <v>0.1150239372488273</v>
+      </c>
+      <c r="D99">
+        <v>-0.02842708576582793</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001062051794400002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003137899199830479</v>
+      </c>
+      <c r="C101">
+        <v>-0.0496919898972891</v>
+      </c>
+      <c r="D101">
+        <v>0.003787883989610451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
